--- a/as5311-module/Project Outputs for as5311-module/as5311-module.xlsx
+++ b/as5311-module/Project Outputs for as5311-module/as5311-module.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Designator</t>
   </si>
@@ -32,69 +32,78 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>C1, C2, C5, C6</t>
+    <t>C1, C2, C5</t>
   </si>
   <si>
     <t>Capacitor SMD Cer 100nF 10% 50V X7R 0603</t>
   </si>
   <si>
+    <t>approved sub OK</t>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+  </si>
+  <si>
+    <t>06035C104KAT2A</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>478-5052-1-ND</t>
+  </si>
+  <si>
     <t>100n</t>
   </si>
   <si>
-    <t>AVX Corporation</t>
-  </si>
-  <si>
-    <t>06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
-    <t>478-5052-1-ND</t>
-  </si>
-  <si>
     <t>C3, C4</t>
   </si>
   <si>
     <t>Capacitor SMD Cer 1uF 10% 16V X7R 0603</t>
   </si>
   <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>C1608X7R1C105K</t>
+  </si>
+  <si>
+    <t>445-1604-1-ND</t>
+  </si>
+  <si>
     <t>1µ</t>
   </si>
   <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>C1608X7R1C105K</t>
-  </si>
-  <si>
-    <t>445-1604-1-ND</t>
-  </si>
-  <si>
     <t>LED1, LED2</t>
   </si>
   <si>
+    <t>WS2812B3535</t>
+  </si>
+  <si>
     <t>DONGGUANG OPSCO OPTOELECTRONICS CO., LTD</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
     <t>P1</t>
   </si>
   <si>
+    <t>JST-SH 4P</t>
+  </si>
+  <si>
     <t>JST Sales America Inc.</t>
   </si>
   <si>
@@ -113,22 +125,55 @@
     <t>455-1804-1-ND</t>
   </si>
   <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Resistor SMD chip 1k Ohm 0.1W 5% 0603</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.0KGRCT-ND</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
     <t>AMS's AS5311 linear hall-effect encoder.</t>
   </si>
   <si>
+    <t>AS5311</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
+    <t>8-bit AVR Microcontroller, 1.8-5.5V, 12MHz, 2KB Flash, 128 Bytes SRAM, 12 GPIO pins, 20-pin VQFN, Industrial Grade (-40°C to 85°C), Pb-Free</t>
+  </si>
+  <si>
+    <t>ATtiny20-MMH</t>
+  </si>
+  <si>
     <t>RGB LED</t>
   </si>
   <si>
-    <t>JST-SH 4P</t>
-  </si>
-  <si>
     <t>AS5311-ATSU-ND</t>
+  </si>
+  <si>
+    <t>ATTINY20-MMH-ND</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>AVR</t>
   </si>
 </sst>
 </file>
@@ -478,25 +523,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,161 +567,211 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3">
-        <v>4</v>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
